--- a/Thiết kế/Thiết Kế Dữ Liệu.xlsx
+++ b/Thiết kế/Thiết Kế Dữ Liệu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Dropbox\My PC (LAPTOP-3KL3D18R)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2BBFE1-8A10-443A-AAF0-8F11CABCF28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0F966B-F40E-49A9-AFA5-D89A90BF06A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D02CC400-7832-4462-A300-632D5769A135}"/>
+    <workbookView xWindow="17010" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{D02CC400-7832-4462-A300-632D5769A135}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>NHAN_VIEN</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>LOAI</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>TEN_NCC</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F961402-F5A9-4205-805D-D5C164776626}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +556,7 @@
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,8 +575,11 @@
       <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,8 +598,11 @@
       <c r="K2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -606,8 +621,11 @@
       <c r="K3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,8 +644,11 @@
       <c r="K4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,13 +659,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,13 +679,16 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,48 +696,48 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
